--- a/matrix/reviewed/windows/signup_reviewed/signup_ui_design_reviewed.xlsx
+++ b/matrix/reviewed/windows/signup_reviewed/signup_ui_design_reviewed.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EE6958-3641-4D0A-BEA2-59B364260E72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CA932A-C45A-48BD-A7D4-96C4B1BC32E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -315,15 +315,143 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2482,6 +2610,1990 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C872EFB-637C-4A6C-891B-E0A127169D81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DD0B7F-8979-4630-B315-5B195F24552C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC7A1C1-97FF-4DEC-84FF-F66F7E38FEF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2521BF-899F-450A-B152-6D69B4708239}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C031BA7E-B167-4020-99BF-9337636C725A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589251FA-81E8-48CE-B267-66E8037D27D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3077BA1F-324B-45CF-8A05-73A5BEB37BD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0852CE87-0178-4D1E-A23F-1E640D779DAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E51FD94-5A1A-4972-96C0-9EBB14E147F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3188D6-5819-4A3D-83B5-7BA41AC619B2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D5177E-5CBD-482A-B8C8-B44AECDB7022}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5A8791-30CE-4D6C-AD7B-637496106559}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2BFD65-DBE8-4210-B38C-0EF37D20BB05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0D2A53-EEFF-40EC-B50F-47870D73DE3A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312978BC-E479-4CCE-ADD8-A0D5B2E863E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85085F8-41D6-41F6-9D82-CBA2F293EA34}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE0CCE8-2C04-4A67-856A-6A6E3BED9A9C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14ECBED-26E3-4270-AD30-F4243093F04A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5500B9-B1E7-4215-8559-588150D8BEAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6CF71C-E538-4765-A90C-59F1794ED147}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E89CFC-B06F-45BE-9D77-E587BCEF71FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E9520B-A8F2-4712-B56D-E78B541222E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7341205-A042-4C23-A74F-338B4FB7D20F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067CAA5D-AF4A-448C-88AC-0D59D03F2E29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502950A5-FF77-480C-8007-EC39243DB8F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149E10AB-68A4-4186-AEAE-5B486BB33A0C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E2DBEA-0B2B-4E50-9C7C-D0671C60ACC1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701A3B25-52E5-4A71-8F25-BDE1E1EEC9E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39F40B5-D6DE-4B9B-BF3B-7135C0FFD168}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838259DC-796A-412C-914E-21A4C70D66FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D79AA9-F5ED-4F8D-8F5E-F46A1CC5AFD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05AAC74F-2E60-4E27-96B0-FD032919558A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2751,10 +4863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O6"/>
+  <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,6 +5002,139 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>45314</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3602,6 +5847,710 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId36" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId37" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId38" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId39" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId40" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId41" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId42" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId43" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId44" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId45" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId46" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId47" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId48" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId49" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId50" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId51" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId52" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId53" name="Check Box 51">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId54" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId55" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId56" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId57" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId58" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId59" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId60" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId61" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId62" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId63" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId64" name="Check Box 62">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId65" name="Check Box 63">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1088" r:id="rId66" name="Check Box 64">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
